--- a/RubricaDeEvaluacion.xlsx
+++ b/RubricaDeEvaluacion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosandresramirez/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosandresramirez/Desktop/Laboratorio2-AREP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98CB459D-2DD3-594E-A1DB-9161577DF1D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FFAAFD-64F0-0A47-B966-3F03204FCC13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14420" yWindow="1000" windowWidth="38400" windowHeight="19640" xr2:uid="{30389B9F-C7D3-A542-9567-157FC0B6A65B}"/>
+    <workbookView xWindow="12800" yWindow="1000" windowWidth="38400" windowHeight="19640" xr2:uid="{30389B9F-C7D3-A542-9567-157FC0B6A65B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
     <t>https://github.com/diegofch29/AREP-Introduction-computer-design</t>
   </si>
   <si>
-    <t>Error titulo paper, faltaron docs en el repositorio</t>
+    <t>No maneja excepciones, Error titulo paper, faltaron docs en el repositorio</t>
   </si>
 </sst>
 </file>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7759D1B1-2861-2D40-A5C1-6BA06F856130}">
   <dimension ref="A3:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C47" s="10">
         <f>SUM(C48:C52)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1108,7 +1108,7 @@
         <v>5</v>
       </c>
       <c r="C50" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1119,7 +1119,7 @@
         <v>5</v>
       </c>
       <c r="C51" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="C54" s="10">
         <f>SUM(C47,C40,C34,C22,C13)</f>
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C55" s="10">
         <f>C54/$B$54*5</f>
-        <v>4.7023809523809526</v>
+        <v>4.5238095238095237</v>
       </c>
     </row>
   </sheetData>
